--- a/ImageReference.xlsx
+++ b/ImageReference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpipc\Desktop\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoPHD\DocsPHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ImageName</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>https://www.javatpoint.com/machine-learning-life-cycle</t>
+  </si>
+  <si>
+    <t>1 BQ0pIVk56WHyqigI9adDLw</t>
+  </si>
+  <si>
+    <t>https://becominghuman.ai/step-by-step-neural-network-tutorial-for-beginner-cc71a04eedeb</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,8 +422,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -602,6 +612,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
